--- a/com.Guru99.BD/TestData/GuruBankCustomerDetails.xlsx
+++ b/com.Guru99.BD/TestData/GuruBankCustomerDetails.xlsx
@@ -42,76 +42,76 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Anasuya</t>
-  </si>
-  <si>
-    <t>KalyanNagar</t>
-  </si>
-  <si>
-    <t>Bangalore</t>
-  </si>
-  <si>
-    <t>KA</t>
-  </si>
-  <si>
-    <t>645664774</t>
-  </si>
-  <si>
-    <t>Abhi</t>
-  </si>
-  <si>
-    <t>KrishnaNagar</t>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>CustOne</t>
+  </si>
+  <si>
+    <t>CustTwo</t>
+  </si>
+  <si>
+    <t>CustThree</t>
+  </si>
+  <si>
+    <t>CustOneAdress</t>
+  </si>
+  <si>
+    <t>CustTwoAdress</t>
+  </si>
+  <si>
+    <t>CustThreeAdress</t>
+  </si>
+  <si>
+    <t>CustOneCity</t>
+  </si>
+  <si>
+    <t>CustTwoCity</t>
+  </si>
+  <si>
+    <t>CustThreeCity</t>
   </si>
   <si>
     <t>TN</t>
   </si>
   <si>
-    <t>Kurnool</t>
-  </si>
-  <si>
-    <t>123345</t>
-  </si>
-  <si>
-    <t>645667774</t>
-  </si>
-  <si>
-    <t>641234774</t>
-  </si>
-  <si>
-    <t>Pravi</t>
-  </si>
-  <si>
-    <t>Tadipatri</t>
-  </si>
-  <si>
-    <t>Anantapur</t>
-  </si>
-  <si>
-    <t>ANP</t>
-  </si>
-  <si>
-    <t>113456</t>
-  </si>
-  <si>
-    <t>abhi@gmail.com</t>
-  </si>
-  <si>
-    <t>anasuya@gmail.com</t>
-  </si>
-  <si>
-    <t>pravi@gmail.com</t>
-  </si>
-  <si>
-    <t>anasuya123</t>
-  </si>
-  <si>
-    <t>abhi123</t>
-  </si>
-  <si>
-    <t>pravi123</t>
-  </si>
-  <si>
-    <t>123456</t>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>123111</t>
+  </si>
+  <si>
+    <t>123112</t>
+  </si>
+  <si>
+    <t>113333</t>
+  </si>
+  <si>
+    <t>645661212</t>
+  </si>
+  <si>
+    <t>645663213</t>
+  </si>
+  <si>
+    <t>641231111</t>
+  </si>
+  <si>
+    <t>CustOne@gmail.com</t>
+  </si>
+  <si>
+    <t>CustTwo@gmail.com</t>
+  </si>
+  <si>
+    <t>CustThree@gmail.com</t>
+  </si>
+  <si>
+    <t>cust1</t>
+  </si>
+  <si>
+    <t>cust2</t>
+  </si>
+  <si>
+    <t>cust3</t>
   </si>
 </sst>
 </file>
@@ -490,15 +490,15 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -520,13 +520,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -534,13 +534,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -548,13 +548,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -562,13 +562,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -576,13 +576,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -593,10 +593,10 @@
         <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -604,13 +604,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/com.Guru99.BD/TestData/GuruBankCustomerDetails.xlsx
+++ b/com.Guru99.BD/TestData/GuruBankCustomerDetails.xlsx
@@ -490,7 +490,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/com.Guru99.BD/TestData/GuruBankCustomerDetails.xlsx
+++ b/com.Guru99.BD/TestData/GuruBankCustomerDetails.xlsx
@@ -45,33 +45,6 @@
     <t>AP</t>
   </si>
   <si>
-    <t>CustOne</t>
-  </si>
-  <si>
-    <t>CustTwo</t>
-  </si>
-  <si>
-    <t>CustThree</t>
-  </si>
-  <si>
-    <t>CustOneAdress</t>
-  </si>
-  <si>
-    <t>CustTwoAdress</t>
-  </si>
-  <si>
-    <t>CustThreeAdress</t>
-  </si>
-  <si>
-    <t>CustOneCity</t>
-  </si>
-  <si>
-    <t>CustTwoCity</t>
-  </si>
-  <si>
-    <t>CustThreeCity</t>
-  </si>
-  <si>
     <t>TN</t>
   </si>
   <si>
@@ -87,31 +60,58 @@
     <t>113333</t>
   </si>
   <si>
-    <t>645661212</t>
-  </si>
-  <si>
-    <t>645663213</t>
-  </si>
-  <si>
-    <t>641231111</t>
-  </si>
-  <si>
-    <t>CustOne@gmail.com</t>
-  </si>
-  <si>
-    <t>CustTwo@gmail.com</t>
-  </si>
-  <si>
-    <t>CustThree@gmail.com</t>
-  </si>
-  <si>
-    <t>cust1</t>
-  </si>
-  <si>
-    <t>cust2</t>
-  </si>
-  <si>
-    <t>cust3</t>
+    <t>Cust4</t>
+  </si>
+  <si>
+    <t>Cust5</t>
+  </si>
+  <si>
+    <t>Cust6</t>
+  </si>
+  <si>
+    <t>Cust4Adress</t>
+  </si>
+  <si>
+    <t>Cust5Adress</t>
+  </si>
+  <si>
+    <t>Cust6Adress</t>
+  </si>
+  <si>
+    <t>Cust4City</t>
+  </si>
+  <si>
+    <t>Cust5City</t>
+  </si>
+  <si>
+    <t>Cust6City</t>
+  </si>
+  <si>
+    <t>645661211</t>
+  </si>
+  <si>
+    <t>645663212</t>
+  </si>
+  <si>
+    <t>641231112</t>
+  </si>
+  <si>
+    <t>Cust4@gmail.com</t>
+  </si>
+  <si>
+    <t>Cust5@gmail.com</t>
+  </si>
+  <si>
+    <t>Cust6@gmail.com</t>
+  </si>
+  <si>
+    <t>cust4</t>
+  </si>
+  <si>
+    <t>cust5</t>
+  </si>
+  <si>
+    <t>cust6</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -506,13 +506,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -520,13 +520,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -534,13 +534,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -551,10 +551,10 @@
         <v>8</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -562,13 +562,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
